--- a/TestData/Litigation_Case_Upload_Format.xlsx
+++ b/TestData/Litigation_Case_Upload_Format.xlsx
@@ -310,7 +310,7 @@
     <t>Order date 24aug25</t>
   </si>
   <si>
-    <t>Order date16april2025</t>
+    <t>Order date16april202</t>
   </si>
 </sst>
 </file>
@@ -989,7 +989,7 @@
   <dimension ref="A1:AM10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1157,7 +1157,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="33">
-        <v>8607023</v>
+        <v>86017023</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
@@ -1242,7 +1242,7 @@
         <v>66</v>
       </c>
       <c r="C3" s="33">
-        <v>7652426</v>
+        <v>76512426</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33" t="s">
@@ -1330,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36">
-        <v>8607023</v>
+        <v>86017023</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>81</v>
@@ -1411,7 +1411,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
-        <v>8607023</v>
+        <v>86017023</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>46</v>
@@ -1474,7 +1474,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="16">
-        <v>32760023</v>
+        <v>86017023</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>75</v>
